--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="CEIRSActiveSurveilla_DATA_LABEL" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="CEIRSActiveSurveilla_DATA_LABEL" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1081,100 +1081,101 @@
     </border>
   </borders>
   <cellStyleXfs count="42">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="28" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="24" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="32" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="20" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="17" numFmtId="0"/>
+    <xf borderId="8" fillId="8" fontId="1" numFmtId="0"/>
+    <xf borderId="4" fillId="5" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="17" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="25" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="21" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="29" fontId="17" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="31" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="27" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="23" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="1" numFmtId="0"/>
+    <xf borderId="5" fillId="6" fontId="10" numFmtId="0"/>
+    <xf borderId="0" fillId="18" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="26" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="22" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="30" fontId="1" numFmtId="0"/>
+    <xf borderId="4" fillId="6" fontId="11" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0"/>
+    <xf borderId="7" fillId="7" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="16" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="33" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="33" fontId="0" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="20" xfId="0"/>
+    <xf borderId="0" fillId="33" fontId="0" numFmtId="14" xfId="0"/>
+    <xf borderId="0" fillId="33" fontId="0" numFmtId="20" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="15" name="Title" xfId="1"/>
-    <cellStyle builtinId="16" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" name="Heading 4" xfId="5"/>
-    <cellStyle builtinId="26" name="Good" xfId="6"/>
-    <cellStyle builtinId="27" name="Bad" xfId="7"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="8"/>
-    <cellStyle builtinId="20" name="Input" xfId="9"/>
-    <cellStyle builtinId="21" name="Output" xfId="10"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="11"/>
-    <cellStyle builtinId="24" name="Linked Cell" xfId="12"/>
-    <cellStyle builtinId="23" name="Check Cell" xfId="13"/>
-    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
-    <cellStyle builtinId="10" name="Note" xfId="15"/>
-    <cellStyle builtinId="53" name="Explanatory Text" xfId="16"/>
-    <cellStyle builtinId="25" name="Total" xfId="17"/>
-    <cellStyle builtinId="29" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="30" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="31" name="40% - Accent1" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - Accent1" xfId="21"/>
-    <cellStyle builtinId="33" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="34" name="20% - Accent2" xfId="23"/>
-    <cellStyle builtinId="35" name="40% - Accent2" xfId="24"/>
-    <cellStyle builtinId="36" name="60% - Accent2" xfId="25"/>
-    <cellStyle builtinId="37" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="38" name="20% - Accent3" xfId="27"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="28"/>
-    <cellStyle builtinId="40" name="60% - Accent3" xfId="29"/>
-    <cellStyle builtinId="41" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="42" name="20% - Accent4" xfId="31"/>
-    <cellStyle builtinId="43" name="40% - Accent4" xfId="32"/>
-    <cellStyle builtinId="44" name="60% - Accent4" xfId="33"/>
-    <cellStyle builtinId="45" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="46" name="20% - Accent5" xfId="35"/>
-    <cellStyle builtinId="47" name="40% - Accent5" xfId="36"/>
-    <cellStyle builtinId="48" name="60% - Accent5" xfId="37"/>
-    <cellStyle builtinId="49" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="50" name="20% - Accent6" xfId="39"/>
-    <cellStyle builtinId="51" name="40% - Accent6" xfId="40"/>
-    <cellStyle builtinId="52" name="60% - Accent6" xfId="41"/>
+    <cellStyle builtinId="15" name="Title" xfId="0"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="1"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="2"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="3"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="4"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="5"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="6"/>
+    <cellStyle builtinId="10" name="Note" xfId="7"/>
+    <cellStyle builtinId="20" name="Input" xfId="8"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="9"/>
+    <cellStyle builtinId="26" name="Good" xfId="10"/>
+    <cellStyle builtinId="0" name="Normal" xfId="11"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="12"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="13"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="14"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="15"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="16"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="17"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="18"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="19"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="20"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="21"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="22"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="23"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="24"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="25"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="26"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="27"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="28"/>
+    <cellStyle builtinId="21" name="Output" xfId="29"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="30"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="33"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="34"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="35"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="36"/>
+    <cellStyle builtinId="27" name="Bad" xfId="37"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="38"/>
+    <cellStyle builtinId="53" name="Explanatory Text" xfId="39"/>
+    <cellStyle builtinId="25" name="Total" xfId="40"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="41"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1452,7 +1453,7 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.55"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1031">
       <c r="A1" t="s">
